--- a/data/Szenario_Trafo/Power_Network.xlsx
+++ b/data/Szenario_Trafo/Power_Network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Trafo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92978F-20F8-4008-8387-60C3B9FC2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8132FC-E8E3-4749-82F4-2DD811E412AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
         <v>200</v>
       </c>
       <c r="L21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16">
@@ -1976,7 +1976,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16">
@@ -2029,7 +2029,7 @@
         <v>200</v>
       </c>
       <c r="L23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16">
@@ -2082,7 +2082,7 @@
         <v>200</v>
       </c>
       <c r="L24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="16">
@@ -2241,7 +2241,7 @@
         <v>200</v>
       </c>
       <c r="L27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16">
@@ -2294,7 +2294,7 @@
         <v>200</v>
       </c>
       <c r="L28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16">
@@ -2453,7 +2453,7 @@
         <v>200</v>
       </c>
       <c r="L31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="16"/>
       <c r="N31" s="16">
@@ -2506,7 +2506,7 @@
         <v>200</v>
       </c>
       <c r="L32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="16"/>
       <c r="N32" s="16">
@@ -2559,7 +2559,7 @@
         <v>200</v>
       </c>
       <c r="L33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16">
@@ -2718,7 +2718,7 @@
         <v>200</v>
       </c>
       <c r="L36" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="16">
@@ -2771,7 +2771,7 @@
         <v>200</v>
       </c>
       <c r="L37" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="16"/>
       <c r="N37" s="16">
@@ -2824,7 +2824,7 @@
         <v>200</v>
       </c>
       <c r="L38" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="16"/>
       <c r="N38" s="16">
@@ -2877,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="L39" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="16">
@@ -2930,7 +2930,7 @@
         <v>200</v>
       </c>
       <c r="L40" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="16"/>
       <c r="N40" s="16">
@@ -3089,7 +3089,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="16"/>
       <c r="N43" s="16">
@@ -3142,7 +3142,7 @@
         <v>200</v>
       </c>
       <c r="L44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="16"/>
       <c r="N44" s="16">
@@ -3301,7 +3301,7 @@
         <v>200</v>
       </c>
       <c r="L47" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="16"/>
       <c r="N47" s="16">
@@ -3354,7 +3354,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16">
@@ -3407,7 +3407,7 @@
         <v>200</v>
       </c>
       <c r="L49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="16"/>
       <c r="N49" s="16">
@@ -3460,7 +3460,7 @@
         <v>200</v>
       </c>
       <c r="L50" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="16"/>
       <c r="N50" s="16">
@@ -3513,7 +3513,7 @@
         <v>200</v>
       </c>
       <c r="L51" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="16"/>
       <c r="N51" s="16">
@@ -3566,7 +3566,7 @@
         <v>200</v>
       </c>
       <c r="L52" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="16"/>
       <c r="N52" s="16">
@@ -3725,7 +3725,7 @@
         <v>200</v>
       </c>
       <c r="L55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="16">
@@ -3778,7 +3778,7 @@
         <v>200</v>
       </c>
       <c r="L56" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="16">
@@ -3937,7 +3937,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16">
@@ -3990,7 +3990,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="16"/>
       <c r="N60" s="16">
@@ -4149,7 +4149,7 @@
         <v>200</v>
       </c>
       <c r="L63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="16"/>
       <c r="N63" s="16">
@@ -4202,7 +4202,7 @@
         <v>200</v>
       </c>
       <c r="L64" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16">
